--- a/scraper/top_remaining_spreadsheets_states/top_remaining_SC.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_SC.xlsx
@@ -44,7 +44,7 @@
     <t>Quick Cash</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>7-11-21</t>
@@ -53,27 +53,27 @@
     <t>Cashtastic</t>
   </si>
   <si>
+    <t>Double Pay Day</t>
+  </si>
+  <si>
+    <t>Lucky 7</t>
+  </si>
+  <si>
     <t>#scratch</t>
   </si>
   <si>
-    <t>Double Pay Day</t>
-  </si>
-  <si>
     <t>Win it All</t>
   </si>
   <si>
     <t>Holiday Cheer</t>
   </si>
   <si>
+    <t>$$$</t>
+  </si>
+  <si>
     <t>Money Bags</t>
   </si>
   <si>
-    <t>Lucky 7</t>
-  </si>
-  <si>
-    <t>$$$</t>
-  </si>
-  <si>
     <t>White Hot 7's</t>
   </si>
   <si>
@@ -83,15 +83,15 @@
     <t>Double Cash Frenzy</t>
   </si>
   <si>
+    <t>3 Times Lucky</t>
+  </si>
+  <si>
+    <t>Neon 1s</t>
+  </si>
+  <si>
     <t>3-2-Won!</t>
   </si>
   <si>
-    <t>3 Times Lucky</t>
-  </si>
-  <si>
-    <t>Neon 1s</t>
-  </si>
-  <si>
     <t>Junior Jumbo Bucks</t>
   </si>
   <si>
@@ -116,12 +116,12 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Wild Numbers 10X</t>
+  </si>
+  <si>
     <t>4 Way Cash</t>
   </si>
   <si>
-    <t>Wild Numbers 10X</t>
-  </si>
-  <si>
     <t>Lucky Green Doubler</t>
   </si>
   <si>
@@ -131,10 +131,16 @@
     <t>Bankroll Tripler</t>
   </si>
   <si>
+    <t>Jumbo Bucks</t>
+  </si>
+  <si>
     <t>$20,000 Wild Cherries</t>
   </si>
   <si>
-    <t>Jumbo Bucks</t>
+    <t>$100 Loaded</t>
+  </si>
+  <si>
+    <t>$20,000 Lucky Win</t>
   </si>
   <si>
     <t>Joker's Wild</t>
@@ -143,21 +149,15 @@
     <t>2019-03-05</t>
   </si>
   <si>
-    <t>$20,000 Lucky Win</t>
-  </si>
-  <si>
-    <t>$100 Loaded</t>
-  </si>
-  <si>
     <t>Money Time</t>
   </si>
   <si>
+    <t>Double Match</t>
+  </si>
+  <si>
     <t>Holiday Spectacular</t>
   </si>
   <si>
-    <t>Double Match</t>
-  </si>
-  <si>
     <t>Cash Money</t>
   </si>
   <si>
@@ -245,15 +245,15 @@
     <t>Cash Craze 7s</t>
   </si>
   <si>
+    <t>Wild Win!</t>
+  </si>
+  <si>
     <t>Ca$h In</t>
   </si>
   <si>
     <t>Triple Play</t>
   </si>
   <si>
-    <t>Wild Win!</t>
-  </si>
-  <si>
     <t>Wild Numbers 20X</t>
   </si>
   <si>
@@ -284,10 +284,10 @@
     <t>Mighty Jumbo Bucks</t>
   </si>
   <si>
+    <t>$50 &amp; $100 Blowout</t>
+  </si>
+  <si>
     <t>$500 Fully Loaded</t>
-  </si>
-  <si>
-    <t>$50 &amp; $100 Blowout</t>
   </si>
   <si>
     <t>Win It All!</t>
@@ -752,10 +752,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1032</v>
+        <v>1062</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -772,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>984</v>
+        <v>1032</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>1070</v>
+        <v>984</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -832,7 +832,7 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1007</v>
+        <v>1070</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -852,10 +852,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>1051</v>
+        <v>1085</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -872,10 +872,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1085</v>
+        <v>1007</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -952,10 +952,10 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>1097</v>
+        <v>1116</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -972,10 +972,10 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>1116</v>
+        <v>1093</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -992,10 +992,10 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1069,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>1023</v>
@@ -1172,13 +1172,13 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>976</v>
+        <v>1019</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1192,13 +1192,13 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>1019</v>
+        <v>976</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1272,7 +1272,7 @@
         <v>38</v>
       </c>
       <c r="D31">
-        <v>1075</v>
+        <v>1057</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1292,7 +1292,7 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1312,13 +1312,13 @@
         <v>40</v>
       </c>
       <c r="D33">
-        <v>1042</v>
+        <v>1094</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1329,7 +1329,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <v>1082</v>
@@ -1349,16 +1349,16 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>1042</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>43</v>
-      </c>
-      <c r="D35">
-        <v>1094</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1392,7 +1392,7 @@
         <v>45</v>
       </c>
       <c r="D37">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>46</v>
       </c>
       <c r="D38">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1952,10 +1952,10 @@
         <v>76</v>
       </c>
       <c r="D65">
-        <v>1064</v>
+        <v>1012</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1972,7 +1972,7 @@
         <v>77</v>
       </c>
       <c r="D66">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -1992,10 +1992,10 @@
         <v>78</v>
       </c>
       <c r="D67">
-        <v>1012</v>
+        <v>1049</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2212,10 +2212,10 @@
         <v>89</v>
       </c>
       <c r="D78">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E78">
-        <v>3850</v>
+        <v>127773</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2232,10 +2232,10 @@
         <v>90</v>
       </c>
       <c r="D79">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E79">
-        <v>145765</v>
+        <v>2150</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2295,7 +2295,7 @@
         <v>1103</v>
       </c>
       <c r="E82">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_SC.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_SC.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>STATE</t>
   </si>
@@ -41,85 +41,73 @@
     <t>$1.00 Games</t>
   </si>
   <si>
-    <t>Quick Cash</t>
-  </si>
-  <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
     <t>7-11-21</t>
   </si>
   <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t>Cashtastic</t>
   </si>
   <si>
+    <t>$$$</t>
+  </si>
+  <si>
     <t>Double Pay Day</t>
   </si>
   <si>
+    <t>Holiday Cheer</t>
+  </si>
+  <si>
+    <t>#scratch</t>
+  </si>
+  <si>
+    <t>White Hot 7's</t>
+  </si>
+  <si>
+    <t>3-2-Won!</t>
+  </si>
+  <si>
+    <t>Double Cash Frenzy</t>
+  </si>
+  <si>
+    <t>Money Mania</t>
+  </si>
+  <si>
+    <t>Big $1 Ticket</t>
+  </si>
+  <si>
+    <t>3 Times Lucky</t>
+  </si>
+  <si>
+    <t>Junior Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>Crossword Lite</t>
+  </si>
+  <si>
+    <t>Money Multiplier</t>
+  </si>
+  <si>
     <t>Lucky 7</t>
   </si>
   <si>
-    <t>#scratch</t>
-  </si>
-  <si>
-    <t>Win it All</t>
-  </si>
-  <si>
-    <t>Holiday Cheer</t>
-  </si>
-  <si>
-    <t>$$$</t>
-  </si>
-  <si>
-    <t>Money Bags</t>
-  </si>
-  <si>
-    <t>White Hot 7's</t>
-  </si>
-  <si>
-    <t>Wild Numbers 5X</t>
-  </si>
-  <si>
-    <t>Double Cash Frenzy</t>
-  </si>
-  <si>
-    <t>3 Times Lucky</t>
-  </si>
-  <si>
     <t>Neon 1s</t>
   </si>
   <si>
-    <t>3-2-Won!</t>
-  </si>
-  <si>
-    <t>Junior Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>Money Multiplier</t>
-  </si>
-  <si>
-    <t>Crossword Lite</t>
-  </si>
-  <si>
     <t>$5,000 Wild Cherries</t>
   </si>
   <si>
     <t>Loose Change</t>
   </si>
   <si>
-    <t>Double Doubler</t>
-  </si>
-  <si>
-    <t>2019-02-19</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
     <t>Wild Numbers 10X</t>
   </si>
   <si>
-    <t>4 Way Cash</t>
+    <t>$20,000 Wild Cherries</t>
   </si>
   <si>
     <t>Lucky Green Doubler</t>
@@ -128,193 +116,160 @@
     <t>It Takes 2</t>
   </si>
   <si>
+    <t>$20,000 Lucky Win</t>
+  </si>
+  <si>
+    <t>$20 Grand</t>
+  </si>
+  <si>
+    <t>Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>Double Match</t>
+  </si>
+  <si>
+    <t>Money Time</t>
+  </si>
+  <si>
+    <t>Bonus Cash</t>
+  </si>
+  <si>
+    <t>Holiday Spectacular</t>
+  </si>
+  <si>
+    <t>Cash Money</t>
+  </si>
+  <si>
     <t>Bankroll Tripler</t>
   </si>
   <si>
-    <t>Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>$20,000 Wild Cherries</t>
+    <t>Platinum Payout</t>
   </si>
   <si>
     <t>$100 Loaded</t>
   </si>
   <si>
-    <t>$20,000 Lucky Win</t>
-  </si>
-  <si>
-    <t>Joker's Wild</t>
-  </si>
-  <si>
-    <t>2019-03-05</t>
-  </si>
-  <si>
-    <t>Money Time</t>
-  </si>
-  <si>
-    <t>Double Match</t>
-  </si>
-  <si>
-    <t>Holiday Spectacular</t>
-  </si>
-  <si>
-    <t>Cash Money</t>
-  </si>
-  <si>
-    <t>Platinum Payout</t>
-  </si>
-  <si>
-    <t>EASY AS... 1 2 3</t>
-  </si>
-  <si>
-    <t>SUPER 7 11 21®</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
-  </si>
-  <si>
-    <t>Ca$h Payout</t>
+    <t>$3.00 Games</t>
+  </si>
+  <si>
+    <t>Loteria</t>
+  </si>
+  <si>
+    <t>Instant Bingo</t>
+  </si>
+  <si>
+    <t>VIP Crossword</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
+    <t>Lady Jumbo Bucks Crossword</t>
+  </si>
+  <si>
+    <t>$5.00 Games</t>
+  </si>
+  <si>
+    <t>Quick $250!</t>
+  </si>
+  <si>
+    <t>All Cash Club</t>
+  </si>
+  <si>
+    <t>$125,000 Payout</t>
+  </si>
+  <si>
+    <t>Ruby Red 5s</t>
+  </si>
+  <si>
+    <t>Harley-Davidson®</t>
+  </si>
+  <si>
+    <t>$125,000 Jackpot</t>
+  </si>
+  <si>
+    <t>The Voice®</t>
+  </si>
+  <si>
+    <t>Bonus 7</t>
+  </si>
+  <si>
+    <t>Giant Jumbo Bucks</t>
+  </si>
+  <si>
+    <t>Power Shot Multiplier</t>
+  </si>
+  <si>
+    <t>Mega Money</t>
+  </si>
+  <si>
+    <t>Wild Win!</t>
+  </si>
+  <si>
+    <t>Cash Craze 7s</t>
+  </si>
+  <si>
+    <t>Platinum Doubler</t>
+  </si>
+  <si>
+    <t>Ca$h In</t>
+  </si>
+  <si>
+    <t>$125,000 Wild Cherries</t>
+  </si>
+  <si>
+    <t>$10.00 Games</t>
+  </si>
+  <si>
+    <t>Gold &amp; Silver Jackpot</t>
+  </si>
+  <si>
+    <t>$250,000 Wild Cherries</t>
+  </si>
+  <si>
+    <t>Lucky 10</t>
   </si>
   <si>
     <t>Cash Blast</t>
   </si>
   <si>
-    <t>Big Quick Cash</t>
-  </si>
-  <si>
-    <t>$3.00 Games</t>
-  </si>
-  <si>
-    <t>Money Puzzle Plus</t>
-  </si>
-  <si>
-    <t>Loteria</t>
-  </si>
-  <si>
-    <t>VIP Crossword</t>
-  </si>
-  <si>
-    <t>Lady Jumbo Bucks Crossword</t>
-  </si>
-  <si>
-    <t>Instant Bingo</t>
-  </si>
-  <si>
-    <t>Loteria™</t>
-  </si>
-  <si>
-    <t>2019-02-12</t>
-  </si>
-  <si>
-    <t>$5.00 Games</t>
-  </si>
-  <si>
-    <t>All Cash Club</t>
-  </si>
-  <si>
-    <t>Quick $250!</t>
-  </si>
-  <si>
-    <t>$125,000 Payout</t>
-  </si>
-  <si>
-    <t>Ruby Red 5s</t>
-  </si>
-  <si>
-    <t>Harley-Davidson®</t>
-  </si>
-  <si>
-    <t>The Voice®</t>
-  </si>
-  <si>
-    <t>Bonus 7</t>
-  </si>
-  <si>
-    <t>$125,000 Wild Cherries</t>
-  </si>
-  <si>
-    <t>$125,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Giant Jumbo Bucks</t>
-  </si>
-  <si>
-    <t>Platinum Doubler</t>
-  </si>
-  <si>
-    <t>Cash Craze 7s</t>
-  </si>
-  <si>
-    <t>Wild Win!</t>
-  </si>
-  <si>
-    <t>Ca$h In</t>
-  </si>
-  <si>
-    <t>Triple Play</t>
-  </si>
-  <si>
-    <t>Wild Numbers 20X</t>
-  </si>
-  <si>
-    <t>Big Money</t>
-  </si>
-  <si>
-    <t>$10.00 Games</t>
-  </si>
-  <si>
-    <t>Gold &amp; Silver Jackpot</t>
-  </si>
-  <si>
     <t>$250,000 Bonus Cash</t>
   </si>
   <si>
-    <t>$250,000 Wild Cherries</t>
-  </si>
-  <si>
-    <t>Lucky 10</t>
-  </si>
-  <si>
     <t>Break the Bank</t>
   </si>
   <si>
     <t>Towering 10s</t>
   </si>
   <si>
+    <t>Carolina Millions</t>
+  </si>
+  <si>
     <t>Mighty Jumbo Bucks</t>
   </si>
   <si>
+    <t>Fast Cash Fever</t>
+  </si>
+  <si>
+    <t>Win Win Win</t>
+  </si>
+  <si>
     <t>$50 &amp; $100 Blowout</t>
   </si>
   <si>
+    <t>Lucky Numbers</t>
+  </si>
+  <si>
+    <t>In The Money</t>
+  </si>
+  <si>
     <t>$500 Fully Loaded</t>
   </si>
   <si>
+    <t>Whole Lotta $500s</t>
+  </si>
+  <si>
     <t>Win It All!</t>
-  </si>
-  <si>
-    <t>Lucky Numbers</t>
-  </si>
-  <si>
-    <t>Whole Lotta $500s</t>
-  </si>
-  <si>
-    <t>Lucky $500</t>
-  </si>
-  <si>
-    <t>Million Dollar Multiplier</t>
-  </si>
-  <si>
-    <t>Wild Numbers 50X</t>
-  </si>
-  <si>
-    <t>Emerald Green 10s</t>
-  </si>
-  <si>
-    <t>Mega Cash Blast</t>
-  </si>
-  <si>
-    <t>Win Big</t>
   </si>
 </sst>
 </file>
@@ -653,7 +608,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,10 +647,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>964</v>
+        <v>1066</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -712,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -732,10 +687,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1041</v>
+        <v>1085</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -772,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -812,7 +767,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>984</v>
+        <v>1026</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -832,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1070</v>
+        <v>1097</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -852,10 +807,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>1085</v>
+        <v>1029</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -872,10 +827,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1007</v>
+        <v>1107</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -892,10 +847,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>1026</v>
+        <v>1105</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -912,10 +867,10 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1018</v>
+        <v>1116</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -932,10 +887,10 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>1029</v>
+        <v>1056</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -952,10 +907,10 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>1116</v>
+        <v>1081</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -972,10 +927,10 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>1093</v>
+        <v>1015</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -992,10 +947,10 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>1097</v>
+        <v>1051</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1009,13 +964,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>1056</v>
+        <v>1023</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1029,10 +984,10 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>1015</v>
+        <v>1093</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1049,13 +1004,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1069,13 +1024,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>1023</v>
+        <v>1047</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1089,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>1074</v>
+        <v>1046</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1106,16 +1061,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23">
-        <v>1047</v>
+        <v>1019</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1126,16 +1081,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1146,19 +1101,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>975</v>
+        <v>1048</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1166,16 +1121,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
       <c r="D26">
-        <v>1019</v>
+        <v>1098</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1186,19 +1141,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>976</v>
+        <v>1082</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1206,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1226,16 +1181,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>1098</v>
+        <v>1122</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1246,16 +1201,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>1101</v>
+        <v>1057</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1266,16 +1221,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1286,13 +1241,13 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1306,16 +1261,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>1094</v>
+        <v>1108</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1326,16 +1281,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1346,19 +1301,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1366,13 +1321,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <v>1086</v>
+        <v>1101</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1386,13 +1341,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1406,16 +1361,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38">
-        <v>1071</v>
+        <v>1094</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1426,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>1052</v>
+        <v>1092</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1446,13 +1401,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>1067</v>
+        <v>944</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1466,16 +1421,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1486,19 +1441,19 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>1027</v>
+        <v>1078</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1506,16 +1461,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>1038</v>
+        <v>1058</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1526,16 +1481,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>1005</v>
+        <v>1096</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1546,19 +1501,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1566,13 +1521,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1586,16 +1541,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>1092</v>
+        <v>1072</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1606,16 +1561,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
         <v>55</v>
       </c>
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
       <c r="D48">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1626,16 +1581,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>1058</v>
+        <v>1091</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1646,13 +1601,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>944</v>
+        <v>1068</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1666,19 +1621,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D51">
-        <v>910</v>
+        <v>1053</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1686,16 +1641,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D52">
-        <v>1028</v>
+        <v>1059</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1706,16 +1661,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D53">
-        <v>1096</v>
+        <v>1109</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1726,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D54">
-        <v>1025</v>
+        <v>1106</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1746,13 +1701,13 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D55">
-        <v>1072</v>
+        <v>1012</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -1766,16 +1721,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
         <v>63</v>
       </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
       <c r="D56">
-        <v>1022</v>
+        <v>1099</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1786,16 +1741,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D57">
-        <v>1068</v>
+        <v>1095</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1806,13 +1761,13 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D58">
-        <v>1053</v>
+        <v>1064</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1826,16 +1781,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D59">
         <v>1076</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1846,13 +1801,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D60">
-        <v>1091</v>
+        <v>1069</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -1866,16 +1821,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D61">
-        <v>955</v>
+        <v>1077</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1886,16 +1841,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1906,16 +1861,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D63">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1926,16 +1881,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D64">
-        <v>1099</v>
+        <v>1035</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1946,16 +1901,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D65">
-        <v>1012</v>
+        <v>1089</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1966,16 +1921,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D66">
-        <v>1064</v>
+        <v>1088</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1986,16 +1941,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D67">
-        <v>1049</v>
+        <v>1080</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2006,16 +1961,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D68">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2026,16 +1981,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D69">
-        <v>1043</v>
+        <v>1117</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2046,16 +2001,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D70">
-        <v>1069</v>
+        <v>1118</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2066,16 +2021,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D71">
-        <v>1035</v>
+        <v>1100</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>67867</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2086,16 +2041,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D72">
-        <v>1083</v>
+        <v>1008</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2106,16 +2061,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
         <v>81</v>
       </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
       <c r="D73">
-        <v>1077</v>
+        <v>1119</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2126,16 +2081,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D74">
-        <v>1061</v>
+        <v>1102</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2146,16 +2101,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D75">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2166,16 +2121,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D76">
-        <v>1088</v>
+        <v>1040</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2186,279 +2141,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D77">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="E77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78">
-        <v>1100</v>
-      </c>
-      <c r="E78">
-        <v>127773</v>
-      </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79">
-        <v>1102</v>
-      </c>
-      <c r="E79">
-        <v>2150</v>
-      </c>
-      <c r="F79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80">
-        <v>1030</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81">
-        <v>1008</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82">
-        <v>1103</v>
-      </c>
-      <c r="E82">
-        <v>105</v>
-      </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83">
-        <v>1054</v>
-      </c>
-      <c r="E83">
-        <v>71</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84">
-        <v>7</v>
-      </c>
-      <c r="D84">
-        <v>1044</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85">
-        <v>1040</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86">
-        <v>1055</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87">
-        <v>1021</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88">
-        <v>1073</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89">
-        <v>1050</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" t="s">
-        <v>99</v>
-      </c>
-      <c r="D90">
-        <v>1033</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
